--- a/AA.xlsx
+++ b/AA.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>mardi</t>
+    <t>lundi</t>
   </si>
   <si>
     <t>Cloud - C (KRTA9AA3)</t>
@@ -95,7 +95,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45958.0</v>
+        <v>45957.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>

--- a/AA.xlsx
+++ b/AA.xlsx
@@ -12,24 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>lundi</t>
+    <t>mardi</t>
   </si>
   <si>
-    <t>Cloud - C (KRTA9AA3)</t>
+    <t>Cloud - C (KRTA9AA3/KUPT9BB1)</t>
   </si>
   <si>
-    <t>KRTA9AA3</t>
+    <t>KRTA9AA3/KUPT9BB1</t>
   </si>
   <si>
     <t>AA</t>
   </si>
   <si>
     <t>10:0</t>
+  </si>
+  <si>
+    <t>U3-106</t>
   </si>
   <si>
     <t>TYPE_COURS</t>
@@ -90,12 +93,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>44.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>45957.0</v>
+        <v>45951.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -117,10 +120,12 @@
       <c r="E3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="F3" s="0"/>
+      <c r="F3" t="s" s="0">
+        <v>6</v>
+      </c>
       <c r="G3" s="0"/>
       <c r="H3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="0"/>
     </row>

--- a/AA.xlsx
+++ b/AA.xlsx
@@ -12,38 +12,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="60">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>BE (KINR6AE1)</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>Réseaux d'opérateurs (KINX6AB1)</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>jeudi</t>
   </si>
   <si>
-    <t>BE (KINR6AE1)</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>samedi</t>
-  </si>
-  <si>
-    <t>Réseaux d'opérateurs (KINX6AB1)</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>dimanche</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCP/IP (KINX6AB2) </t>
   </si>
   <si>
@@ -62,7 +62,7 @@
     <t>15:45</t>
   </si>
   <si>
-    <t>lundi</t>
+    <t>vendredi</t>
   </si>
   <si>
     <t>7:45</t>
@@ -74,7 +74,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
   <si>
     <t>PHP (KINX6AA2)</t>
@@ -180,12 +180,6 @@
   </si>
   <si>
     <t>Gestion de Projets (KUPX6AA4) /CC</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>14:30</t>
   </si>
   <si>
     <t>Réseaux d'opérateurs (KINX6AB1) /CC</t>
@@ -260,7 +254,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44931.0</v>
+        <v>46027.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -289,7 +283,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44933.0</v>
+        <v>46029.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>6</v>
@@ -318,7 +312,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
-        <v>44934.0</v>
+        <v>46030.0</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>9</v>
@@ -391,7 +385,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="1">
-        <v>44935.0</v>
+        <v>46031.0</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>16</v>
@@ -430,7 +424,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n" s="1">
-        <v>44938.0</v>
+        <v>46034.0</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>1</v>
@@ -505,7 +499,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="1">
-        <v>44939.0</v>
+        <v>46035.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>20</v>
@@ -534,7 +528,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>44940.0</v>
+        <v>46036.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>6</v>
@@ -584,7 +578,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>44941.0</v>
+        <v>46037.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>9</v>
@@ -661,7 +655,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>44942.0</v>
+        <v>46038.0</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>16</v>
@@ -767,7 +761,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n" s="1">
-        <v>44945.0</v>
+        <v>46041.0</v>
       </c>
       <c r="B32" t="s" s="0">
         <v>1</v>
@@ -890,7 +884,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n" s="1">
-        <v>44946.0</v>
+        <v>46042.0</v>
       </c>
       <c r="B38" t="s" s="0">
         <v>20</v>
@@ -919,7 +913,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n" s="1">
-        <v>44947.0</v>
+        <v>46043.0</v>
       </c>
       <c r="B40" t="s" s="0">
         <v>6</v>
@@ -950,7 +944,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n" s="1">
-        <v>44949.0</v>
+        <v>46045.0</v>
       </c>
       <c r="B42" t="s" s="0">
         <v>16</v>
@@ -1054,7 +1048,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="1">
-        <v>44952.0</v>
+        <v>46048.0</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>1</v>
@@ -1108,7 +1102,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="1">
-        <v>44953.0</v>
+        <v>46049.0</v>
       </c>
       <c r="B51" t="s" s="0">
         <v>20</v>
@@ -1183,7 +1177,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n" s="1">
-        <v>44954.0</v>
+        <v>46050.0</v>
       </c>
       <c r="B55" t="s" s="0">
         <v>6</v>
@@ -1212,7 +1206,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n" s="1">
-        <v>44955.0</v>
+        <v>46051.0</v>
       </c>
       <c r="B57" t="s" s="0">
         <v>9</v>
@@ -1312,7 +1306,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="1">
-        <v>44956.0</v>
+        <v>46052.0</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>16</v>
@@ -1372,7 +1366,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n" s="1">
-        <v>44959.0</v>
+        <v>46055.0</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>1</v>
@@ -1426,7 +1420,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n" s="1">
-        <v>44960.0</v>
+        <v>46056.0</v>
       </c>
       <c r="B69" t="s" s="0">
         <v>20</v>
@@ -1501,7 +1495,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="1">
-        <v>44962.0</v>
+        <v>46058.0</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>9</v>
@@ -1601,7 +1595,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n" s="1">
-        <v>44963.0</v>
+        <v>46059.0</v>
       </c>
       <c r="B78" t="s" s="0">
         <v>16</v>
@@ -1638,7 +1632,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n" s="1">
-        <v>44966.0</v>
+        <v>46062.0</v>
       </c>
       <c r="B81" t="s" s="0">
         <v>1</v>
@@ -1692,7 +1686,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n" s="1">
-        <v>44967.0</v>
+        <v>46063.0</v>
       </c>
       <c r="B84" t="s" s="0">
         <v>20</v>
@@ -1723,7 +1717,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n" s="1">
-        <v>44970.0</v>
+        <v>46066.0</v>
       </c>
       <c r="B86" t="s" s="0">
         <v>16</v>
@@ -1785,7 +1779,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n" s="1">
-        <v>44973.0</v>
+        <v>46069.0</v>
       </c>
       <c r="B90" t="s" s="0">
         <v>1</v>
@@ -1847,7 +1841,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n" s="1">
-        <v>44980.0</v>
+        <v>46076.0</v>
       </c>
       <c r="B94" t="s" s="0">
         <v>1</v>
@@ -1901,7 +1895,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n" s="1">
-        <v>44981.0</v>
+        <v>46077.0</v>
       </c>
       <c r="B97" t="s" s="0">
         <v>20</v>
@@ -1955,7 +1949,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n" s="1">
-        <v>44983.0</v>
+        <v>46079.0</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>9</v>
@@ -1986,7 +1980,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n" s="1">
-        <v>44984.0</v>
+        <v>46080.0</v>
       </c>
       <c r="B102" t="s" s="0">
         <v>16</v>
@@ -2025,7 +2019,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B105" t="s" s="0">
         <v>20</v>
@@ -2102,7 +2096,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B109" t="s" s="0">
         <v>6</v>
@@ -2156,7 +2150,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n" s="1">
-        <v>44997.0</v>
+        <v>46093.0</v>
       </c>
       <c r="B112" t="s" s="0">
         <v>9</v>
@@ -2210,7 +2204,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n" s="1">
-        <v>44998.0</v>
+        <v>46094.0</v>
       </c>
       <c r="B115" t="s" s="0">
         <v>16</v>
@@ -2295,7 +2289,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n" s="1">
-        <v>45001.0</v>
+        <v>46097.0</v>
       </c>
       <c r="B120" t="s" s="0">
         <v>1</v>
@@ -2324,7 +2318,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n" s="1">
-        <v>45002.0</v>
+        <v>46098.0</v>
       </c>
       <c r="B122" t="s" s="0">
         <v>20</v>
@@ -2378,7 +2372,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n" s="1">
-        <v>45003.0</v>
+        <v>46099.0</v>
       </c>
       <c r="B125" t="s" s="0">
         <v>6</v>
@@ -2409,7 +2403,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n" s="1">
-        <v>45004.0</v>
+        <v>46100.0</v>
       </c>
       <c r="B127" t="s" s="0">
         <v>9</v>
@@ -2463,7 +2457,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n" s="1">
-        <v>45005.0</v>
+        <v>46101.0</v>
       </c>
       <c r="B130" t="s" s="0">
         <v>16</v>
@@ -2571,7 +2565,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n" s="1">
-        <v>45009.0</v>
+        <v>46105.0</v>
       </c>
       <c r="B136" t="s" s="0">
         <v>20</v>
@@ -2625,7 +2619,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n" s="1">
-        <v>45010.0</v>
+        <v>46106.0</v>
       </c>
       <c r="B139" t="s" s="0">
         <v>6</v>
@@ -2656,7 +2650,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n" s="1">
-        <v>45011.0</v>
+        <v>46107.0</v>
       </c>
       <c r="B141" t="s" s="0">
         <v>9</v>
@@ -2671,7 +2665,7 @@
         <v>23</v>
       </c>
       <c r="D142" t="s" s="0">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E142" t="n" s="0">
         <v>2.0</v>
@@ -2694,7 +2688,7 @@
         <v>37</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E143" t="n" s="0">
         <v>2.0</v>
@@ -2710,7 +2704,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n" s="1">
-        <v>45012.0</v>
+        <v>46108.0</v>
       </c>
       <c r="B144" t="s" s="0">
         <v>16</v>
@@ -2772,7 +2766,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n" s="1">
-        <v>45015.0</v>
+        <v>46111.0</v>
       </c>
       <c r="B148" t="s" s="0">
         <v>1</v>
@@ -2780,7 +2774,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B149" s="0"/>
       <c r="C149" t="s" s="0">
@@ -2822,7 +2816,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n" s="1">
-        <v>45016.0</v>
+        <v>46112.0</v>
       </c>
       <c r="B151" t="s" s="0">
         <v>20</v>
@@ -2853,7 +2847,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n" s="1">
-        <v>45017.0</v>
+        <v>46113.0</v>
       </c>
       <c r="B153" t="s" s="0">
         <v>6</v>
@@ -2884,7 +2878,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n" s="1">
-        <v>45018.0</v>
+        <v>46114.0</v>
       </c>
       <c r="B155" t="s" s="0">
         <v>9</v>
@@ -2892,7 +2886,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B156" s="0"/>
       <c r="C156" t="s" s="0">
@@ -2938,7 +2932,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n" s="1">
-        <v>45019.0</v>
+        <v>46115.0</v>
       </c>
       <c r="B158" t="s" s="0">
         <v>16</v>
@@ -2977,7 +2971,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n" s="1">
-        <v>45025.0</v>
+        <v>46121.0</v>
       </c>
       <c r="B161" t="s" s="0">
         <v>9</v>
@@ -3016,7 +3010,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n" s="1">
-        <v>45030.0</v>
+        <v>46126.0</v>
       </c>
       <c r="B164" t="s" s="0">
         <v>20</v>
@@ -3047,7 +3041,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n" s="1">
-        <v>45032.0</v>
+        <v>46128.0</v>
       </c>
       <c r="B166" t="s" s="0">
         <v>9</v>
@@ -3086,7 +3080,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n" s="1">
-        <v>45053.0</v>
+        <v>46149.0</v>
       </c>
       <c r="B169" t="s" s="0">
         <v>9</v>
@@ -3094,7 +3088,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B170" s="0"/>
       <c r="C170" t="s" s="0">
@@ -3123,7 +3117,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n" s="1">
-        <v>45065.0</v>
+        <v>46161.0</v>
       </c>
       <c r="B172" t="s" s="0">
         <v>20</v>
@@ -3131,11 +3125,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B173" s="0"/>
       <c r="C173" t="s" s="0">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D173" t="s" s="0">
         <v>8</v>
